--- a/biology/Botanique/Cycas_debaoensis/Cycas_debaoensis.xlsx
+++ b/biology/Botanique/Cycas_debaoensis/Cycas_debaoensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cycas debaoensis est une espèce végétale endémique de la région du Guangxi en Chine. Elle pousse dans des endroits ensoleillés à des altitudes de 700 à 1000 m [1]. Elle est étroitement apparenté à Cycas multipinnata.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cycas debaoensis est une espèce végétale endémique de la région du Guangxi en Chine. Elle pousse dans des endroits ensoleillés à des altitudes de 700 à 1000 m . Elle est étroitement apparenté à Cycas multipinnata.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cycas debaoensis a un tronc en majorité souterrain, qui ne montre, au plus, que 70 cm au-dessus du sol. Les feuilles sont tripennées avec des épines le long du rachis , elles sont vert foncé, lustrées, et peuvent atteindre la taille étonnante de 2 à 3 m de long. Les 30 à 50 folioles mesurent 50 cm de long , elles sont divisées en de nombreuses foliolules, donnant à la feuille une apparence très buissonnante. C. debaoensis pousse sur des pentes abruptes en sol calcaire dans des forêts de feuillus et de persistants. Les graines sont vertes, jaunes ou brunes, 3–4 cm de diamètre [1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cycas debaoensis a un tronc en majorité souterrain, qui ne montre, au plus, que 70 cm au-dessus du sol. Les feuilles sont tripennées avec des épines le long du rachis , elles sont vert foncé, lustrées, et peuvent atteindre la taille étonnante de 2 à 3 m de long. Les 30 à 50 folioles mesurent 50 cm de long , elles sont divisées en de nombreuses foliolules, donnant à la feuille une apparence très buissonnante. C. debaoensis pousse sur des pentes abruptes en sol calcaire dans des forêts de feuillus et de persistants. Les graines sont vertes, jaunes ou brunes, 3–4 cm de diamètre ,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce cycas est l'un des plus menacés de Chine, car limité à une très petite zone (environ 20 ha) .
 Cycas debaoensis se trouve dans :
